--- a/src/main/resources/modules/FASB.xlsx
+++ b/src/main/resources/modules/FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7FCF5E-89D5-4C52-BC7F-673C2CCAD7A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A13F0F-6EE5-4F1E-A166-A8F89F3993FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="181">
   <si>
     <t>UserName</t>
   </si>
@@ -394,12 +394,6 @@
     <t>?Cannot Clicked to Expand Calculations &amp; Processing</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>(Property Name),home</t>
-  </si>
-  <si>
     <t>exist?</t>
   </si>
   <si>
@@ -569,6 +563,12 @@
   </si>
   <si>
     <t>property,lease,space,recur</t>
+  </si>
+  <si>
+    <t>$Lease_dbaName_0</t>
+  </si>
+  <si>
+    <t>(Property Name),$Property_propertyName_0</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -701,19 +701,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -811,9 +798,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,83 +856,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -976,22 +960,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1007,11 +988,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="9" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="8" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,7 +1002,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1033,6 +1014,27 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1440,7 +1442,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,10 +1512,10 @@
         <v>444</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -1555,7 +1557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2224,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589458C9-FE7B-4D48-BBC3-FB5C44A960DA}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,7 +2236,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="7" width="54.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14" style="68" customWidth="1"/>
+    <col min="8" max="8" width="14" style="66" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="85.85546875" customWidth="1"/>
@@ -2283,23 +2285,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="33"/>
-      <c r="I2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="39"/>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -2613,7 +2615,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="25" t="s">
@@ -2669,7 +2671,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="25" t="s">
@@ -2679,7 +2681,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2740,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2780,1036 +2782,1058 @@
       <c r="E19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="33"/>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="34">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="39"/>
+      <c r="I22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="45">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="46">
+      <c r="E23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="45">
+        <v>1</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="45">
         <v>2</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="46">
-        <v>1</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="52" t="s">
+      <c r="C25" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="46">
-        <v>2</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="53" t="s">
+      <c r="G25" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="45">
+        <v>3</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="46">
-        <v>3</v>
-      </c>
-      <c r="C26" s="47" t="s">
+      <c r="G26" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="50" t="s">
+      <c r="H26" s="68"/>
+      <c r="I26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="46">
+      <c r="A27" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="45">
         <v>4</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="50" t="s">
+      <c r="H27" s="68"/>
+      <c r="I27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="46">
-        <v>5</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="49" t="s">
+      <c r="A28" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="45">
+        <v>5</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="50" t="s">
+      <c r="H28" s="68"/>
+      <c r="I28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="46">
+      <c r="A29" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="45">
         <v>6</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="50" t="s">
+      <c r="G29" s="47"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="46">
+      <c r="A30" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="45">
         <v>7</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="50" t="s">
+      <c r="H30" s="68"/>
+      <c r="I30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="46">
+      <c r="A31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="45">
         <v>8</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="49" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="55">
+        <v>9</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E32" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="68"/>
+      <c r="I32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="55">
+        <v>10</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="60"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="55">
+        <v>11</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="68"/>
+      <c r="I34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="55">
+        <v>12</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="68"/>
+      <c r="I35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="55">
+        <v>14</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="61"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="55">
+        <v>11</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="68"/>
+      <c r="I37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="55">
+        <v>16</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="68"/>
+      <c r="I38" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="55">
+        <v>17</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="55">
+        <v>18</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="60"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="55">
+        <v>19</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="68"/>
+      <c r="I41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="55">
+        <v>20</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="60"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="55">
+        <v>22</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="55">
+        <v>23</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="68"/>
+      <c r="I44" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="55">
+        <v>24</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="68"/>
+      <c r="I45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="62">
+        <v>25</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="68"/>
+      <c r="I46" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="62">
+        <v>26</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="60"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="55">
+        <v>27</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="68"/>
+      <c r="I48" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="55">
+        <v>28</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="68"/>
+      <c r="I49" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="62">
+        <v>29</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="H50" s="68"/>
+      <c r="I50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="62">
+        <v>30</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="56">
-        <v>9</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="56">
-        <v>10</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="56">
-        <v>11</v>
-      </c>
-      <c r="C34" s="55" t="s">
+      <c r="F51" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="60"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="62">
+        <v>31</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="68"/>
+      <c r="I52" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="62">
+        <v>32</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="56">
-        <v>12</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="56">
-        <v>14</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="56">
-        <v>16</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="56">
-        <v>17</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="31" t="s">
+      <c r="F53" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="56">
-        <v>18</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="56">
-        <v>19</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="31" t="s">
+      <c r="H53" s="68"/>
+      <c r="I53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="55">
+        <v>33</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="57"/>
+      <c r="E54" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="70"/>
-      <c r="I40" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="56">
-        <v>20</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="56">
-        <v>22</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="56">
-        <v>23</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="56">
-        <v>24</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="64">
-        <v>25</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="H45" s="70"/>
-      <c r="I45" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="64">
-        <v>26</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="56">
-        <v>27</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" s="70"/>
-      <c r="I47" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="56">
-        <v>28</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" s="70"/>
-      <c r="I48" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="64">
-        <v>29</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="70"/>
-      <c r="I49" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="64">
-        <v>30</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="64">
-        <v>31</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="61" t="s">
+      <c r="H54" s="68"/>
+      <c r="I54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="55">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="70"/>
-      <c r="I51" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="64">
-        <v>32</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="H52" s="70"/>
-      <c r="I52" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="56">
-        <v>33</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="H53" s="70"/>
-      <c r="I53" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="56">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G55" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="1" t="s">
+      <c r="H55" s="68"/>
+      <c r="I55" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="55">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
         <v>170</v>
       </c>
-      <c r="F54" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="66" t="s">
+      <c r="D56" s="57"/>
+      <c r="E56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="70"/>
-      <c r="I54" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="56">
-        <v>35</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="F56" s="65"/>
+      <c r="G56" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="67"/>
-      <c r="G55" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="70"/>
-      <c r="I55" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="36">
-        <v>36</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="60" t="s">
-        <v>5</v>
+      <c r="H56" s="68"/>
+      <c r="I56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="49" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="8" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="7" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H55">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+  <conditionalFormatting sqref="H23:H36 H38:H56">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H55">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+  <conditionalFormatting sqref="H23:H36 H38:H56">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23:H55" xr:uid="{A15DA407-F085-4ED6-8768-5FA7D3480318}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23:H56" xr:uid="{A15DA407-F085-4ED6-8768-5FA7D3480318}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3819,7 +3843,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{D768DC0D-5E4E-43D9-8F43-9348AAF4DCD8}">
+          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{D768DC0D-5E4E-43D9-8F43-9348AAF4DCD8}">
             <xm:f>[sample.xlsx]Controller!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -3832,7 +3856,7 @@
           <xm:sqref>H1:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{BB7B3C62-66BF-449B-80FF-AF8183145770}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{BB7B3C62-66BF-449B-80FF-AF8183145770}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -3842,10 +3866,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H23:H55</xm:sqref>
+          <xm:sqref>H23:H36 H38:H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{E21CA148-C1D1-412F-AFD2-74C8452051CD}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{E21CA148-C1D1-412F-AFD2-74C8452051CD}">
             <xm:f>[sample.xlsx]Controller!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -3858,8 +3882,8 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{16C92061-ED42-455E-8144-8681144925EE}">
-            <xm:f>[sample.xlsx]Controller!#REF!</xm:f>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{4A8DAE61-1CDE-4F15-BC4A-3F7058ED19F2}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3868,7 +3892,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
